--- a/Server/Server/GameData/FITH_Mode.xlsx
+++ b/Server/Server/GameData/FITH_Mode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE9D87-665A-4A29-BE00-6469C61BE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6714D4-9E00-49D2-86D2-56616541234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{536A5D55-3B78-442E-B1BC-DEB08582E038}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{536A5D55-3B78-442E-B1BC-DEB08582E038}"/>
   </bookViews>
   <sheets>
     <sheet name="Info_Fire In The Hole_Variable " sheetId="9" r:id="rId1"/>
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F16D73E-7E82-453A-89D9-3F0CCF96D009}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F2D96-B379-43A2-8F79-BB69AD60A44C}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,16 +1457,16 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>40</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1598,16 +1598,16 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>40</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1644,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563ED049-19E0-4137-8511-0E0831E813C1}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1739,16 +1739,16 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>40</v>
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Server/Server/GameData/FITH_Mode.xlsx
+++ b/Server/Server/GameData/FITH_Mode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6714D4-9E00-49D2-86D2-56616541234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D281E-211D-465D-A443-1BA090642A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{536A5D55-3B78-442E-B1BC-DEB08582E038}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{536A5D55-3B78-442E-B1BC-DEB08582E038}"/>
   </bookViews>
   <sheets>
     <sheet name="Info_Fire In The Hole_Variable " sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,17 @@
   </si>
   <si>
     <t>플레이어 스폰 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Delay_Time</t>
+  </si>
+  <si>
+    <t>Bomb_Delay_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 지연 시간(초)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F16D73E-7E82-453A-89D9-3F0CCF96D009}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1349,6 +1360,20 @@
       </c>
       <c r="D36" s="1"/>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -1360,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684F2D96-B379-43A2-8F79-BB69AD60A44C}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,21 +1398,22 @@
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
-    <col min="14" max="14" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="15" max="15" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1404,43 +1430,46 @@
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>300</v>
       </c>
@@ -1457,39 +1486,42 @@
         <v>30</v>
       </c>
       <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>40</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>19</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>9</v>
       </c>
     </row>
@@ -1501,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8678ECA-D17F-48FC-904A-891C577CA8A5}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1526,9 +1558,10 @@
     <col min="15" max="15" width="28.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1545,43 +1578,46 @@
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>300</v>
       </c>
@@ -1598,39 +1634,42 @@
         <v>30</v>
       </c>
       <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>40</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>19</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>9</v>
       </c>
     </row>
@@ -1642,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563ED049-19E0-4137-8511-0E0831E813C1}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1667,9 +1706,11 @@
     <col min="15" max="15" width="28.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.75" customWidth="1"/>
+    <col min="19" max="19" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1686,43 +1727,46 @@
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>300</v>
       </c>
@@ -1739,39 +1783,42 @@
         <v>30</v>
       </c>
       <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>40</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>19</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>9</v>
       </c>
     </row>
